--- a/biology/Médecine/Ernst_Weiss/Ernst_Weiss.xlsx
+++ b/biology/Médecine/Ernst_Weiss/Ernst_Weiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Weiß, né le 28 août 1882 à Brünn et mort le 14 ou le 15 juin 1940 à Paris, est un médecin et écrivain autrichien d'origine juive.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Weiß était le fils d'un commerçant d'étoffes qui décéda en 1886. Malgré les difficultés financières de sa famille, il put étudier pour obtenir son Matura (équivalent du baccalauréat en Suisse) et aller ensuite aux universités de Prague et Vienne pour étudier la médecine et passer sa thèse de doctorat. Parallèlement Weiß obtint un emploi à l'hôpital de Wieden dans la ville de Vienne, par la suite il fut également chirurgien à Berlin et Vienne. À cette époque il commença aussi sa correspondance avec Martin Buber. Durant les années 1912 et 1913, il fut embauché en tant que médecin sur un navire et voyagea notamment en Inde et au Japon. Lors d'un congé il fit la connaissance de Franz Kafka qui le conforta dans ses activités littéraires, Weiß écrivit ainsi "die Galeere" ("La Galère" en français) en 1913.
 En 1914, Weiß est enrôlé dans l'armée et prend part à la Première Guerre mondiale en tant que médecin de régiment en Hongrie et en Volhynie. Après la guerre, il s'établit comme médecin à Prague et travailla deux années dans un hôpital. Après un court séjour à Munich, Weiß partit pour Berlin où il voulut vivre de sa plume. Il quitta Berlin définitivement peu avant l'Incendie du Reichstag en février 1933 et retourna à Prague où il s'occupa de sa mère jusqu'aux derniers jours de celle-ci en janvier 1934. Quatre semaines plus tard, il émigra vers Paris. Comme il ne pouvait travailler en tant que médecin faute d'autorisation, il commença à écrire pour différents journaux pour les émigrés. Ce travail n'était pas suffisant pour gagner sa vie et les écrivains Thomas Mann et Stefan Zweig le soutinrent financièrement.
@@ -547,7 +561,9 @@
           <t>Œuvres[modifier | modifier le code]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jarmila. Une histoire d'amour de Bohême. Traduit par Pierre Deshusses. Préface de Peter Engel. Actes Sud, 1999</t>
         </is>
